--- a/doctors/table_data.xlsx
+++ b/doctors/table_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>dsad</t>
   </si>
@@ -41,19 +41,25 @@
     <t>ali omar</t>
   </si>
   <si>
-    <t>dasdasd</t>
-  </si>
-  <si>
-    <t>dw@</t>
-  </si>
-  <si>
-    <t>../images/—Pngtree—original hand drawn vector gtr_7156161.png</t>
-  </si>
-  <si>
-    <t>dwa</t>
-  </si>
-  <si>
-    <t>dwadw</t>
+    <t>aland</t>
+  </si>
+  <si>
+    <t>07504453750</t>
+  </si>
+  <si>
+    <t>aland@gmail.com</t>
+  </si>
+  <si>
+    <t>images/about us.png</t>
+  </si>
+  <si>
+    <t>1111-11-11</t>
+  </si>
+  <si>
+    <t>2023-04-24 16:08:57</t>
+  </si>
+  <si>
+    <t>erbil</t>
   </si>
 </sst>
 </file>
@@ -444,39 +450,39 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>32</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>23</v>
-      </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2"/>
       <c r="L2" t="s">
         <v>7</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
